--- a/SQLDesign.xlsx
+++ b/SQLDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitrepos\Delfinopgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C5DA07-EC01-4344-9AAF-7E7CC08D4171}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71B45D9-02EE-4B4F-AFCB-542C9F393A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54CB1516-5148-4BD0-9D7E-4F87B4DEDD09}"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{54CB1516-5148-4BD0-9D7E-4F87B4DEDD09}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Medlemmer</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Navn</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Konkurrence/Motionist</t>
   </si>
   <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
     <t xml:space="preserve">Navn </t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Hold</t>
   </si>
   <si>
-    <t>A/B</t>
-  </si>
-  <si>
     <t>Disciplin</t>
   </si>
   <si>
@@ -96,16 +87,25 @@
     <t xml:space="preserve">Tid </t>
   </si>
   <si>
-    <t>Butterfly</t>
-  </si>
-  <si>
-    <t>Crawl</t>
-  </si>
-  <si>
-    <t>Rygcrawl</t>
-  </si>
-  <si>
-    <t>BrystSvømning</t>
+    <t>D_ID</t>
+  </si>
+  <si>
+    <t>D_NAME</t>
+  </si>
+  <si>
+    <t>M_ID</t>
+  </si>
+  <si>
+    <t>T_ID</t>
+  </si>
+  <si>
+    <t>T_NAVN</t>
+  </si>
+  <si>
+    <t>T_HOLDID</t>
+  </si>
+  <si>
+    <t>H_ID</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,27 +187,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ABBFF4-5668-47E1-9377-009923B16BCE}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,384 +534,216 @@
     <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="7" t="s">
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="5"/>
-      <c r="J14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="5"/>
-      <c r="J17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H18" s="5"/>
-      <c r="J18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="J21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="5"/>
-      <c r="J23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H24" s="5"/>
-      <c r="J24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="5"/>
-      <c r="J27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H28" s="5"/>
-      <c r="J28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>12</v>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="7">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
